--- a/tables/tables.xlsx
+++ b/tables/tables.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Documents/10-Phds-Masters/Catalina Suescun/Multimaterial-article/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD4D8D3-0C44-1E4A-81B2-EE447B618DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32031C46-DCF3-DF4A-91B1-BB760DD49A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20480" yWindow="500" windowWidth="20480" windowHeight="21100" activeTab="1" xr2:uid="{7F404E41-5885-B84E-A1F0-6680A62133FC}"/>
+    <workbookView xWindow="20480" yWindow="500" windowWidth="20480" windowHeight="21100" activeTab="4" xr2:uid="{7F404E41-5885-B84E-A1F0-6680A62133FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1.a" sheetId="1" r:id="rId1"/>
     <sheet name="Table1.b" sheetId="2" r:id="rId2"/>
+    <sheet name="Table1.c" sheetId="3" r:id="rId3"/>
+    <sheet name="Table2" sheetId="4" r:id="rId4"/>
+    <sheet name="Table3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t xml:space="preserve">Variable </t>
   </si>
@@ -122,6 +125,150 @@
   </si>
   <si>
     <t xml:space="preserve">Infill density </t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>Kv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The emphasis given to the velocity component </t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The emphasis given to a particle's personal best position </t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The emphasis given to the swarm's group best position </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample </t>
+  </si>
+  <si>
+    <t>Tg (°C)</t>
+  </si>
+  <si>
+    <t>Tm  (°C )</t>
+  </si>
+  <si>
+    <t>ΔHm (J/g)</t>
+  </si>
+  <si>
+    <t>Tc  (°C )</t>
+  </si>
+  <si>
+    <t>ΔHc (J/g)</t>
+  </si>
+  <si>
+    <t>ΔHcc (J/g)</t>
+  </si>
+  <si>
+    <t>rPET</t>
+  </si>
+  <si>
+    <t>249.9</t>
+  </si>
+  <si>
+    <t>31.6</t>
+  </si>
+  <si>
+    <t>196.7</t>
+  </si>
+  <si>
+    <t>34.8</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>22.6</t>
+  </si>
+  <si>
+    <t>rHDPE</t>
+  </si>
+  <si>
+    <t>133.8</t>
+  </si>
+  <si>
+    <t>118.7</t>
+  </si>
+  <si>
+    <t>158.5</t>
+  </si>
+  <si>
+    <t>58.7</t>
+  </si>
+  <si>
+    <t>rPET90/rHDPE10</t>
+  </si>
+  <si>
+    <t>77 / -</t>
+  </si>
+  <si>
+    <t>254/131.7</t>
+  </si>
+  <si>
+    <t>40.3/1.30</t>
+  </si>
+  <si>
+    <t>210.6/117.4</t>
+  </si>
+  <si>
+    <t>37.9/6.7</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>24.8 / 18.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line value </t>
+  </si>
+  <si>
+    <t>Planes value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cube value </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Δ </t>
+  </si>
+  <si>
+    <t>6 ±3.2</t>
+  </si>
+  <si>
+    <t>4±2</t>
+  </si>
+  <si>
+    <t>11±5.6</t>
+  </si>
+  <si>
+    <t>mm/s</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>0.5±0.3</t>
   </si>
 </sst>
 </file>
@@ -184,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -201,6 +348,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDC847D-BEBA-D14A-B46B-4F9CA9FEB520}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -721,4 +872,309 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1C5ECF-1AE3-BF48-BCD9-5B8CA64FFEAD}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="7"/>
+    <col min="3" max="3" width="47.5" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD1A7D8-5095-3041-9731-C519F77942BB}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="6" customWidth="1"/>
+    <col min="3" max="7" width="10.83203125" style="6"/>
+    <col min="8" max="8" width="20.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="6">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="6">
+        <v>172</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B6BB1D-5043-F64C-A50F-2EBC8D58CD92}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
+        <v>258</v>
+      </c>
+      <c r="C2" s="7">
+        <v>263</v>
+      </c>
+      <c r="D2" s="7">
+        <v>264</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7">
+        <v>86</v>
+      </c>
+      <c r="C3" s="7">
+        <v>82</v>
+      </c>
+      <c r="D3" s="7">
+        <v>84</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tables/tables.xlsx
+++ b/tables/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Documents/10-Phds-Masters/Catalina Suescun/Multimaterial-article/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32031C46-DCF3-DF4A-91B1-BB760DD49A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531F4A0D-926B-1942-86B6-C55231C8BED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20480" yWindow="500" windowWidth="20480" windowHeight="21100" activeTab="4" xr2:uid="{7F404E41-5885-B84E-A1F0-6680A62133FC}"/>
+    <workbookView xWindow="20480" yWindow="500" windowWidth="20480" windowHeight="21100" activeTab="5" xr2:uid="{7F404E41-5885-B84E-A1F0-6680A62133FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1.a" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Table1.c" sheetId="3" r:id="rId3"/>
     <sheet name="Table2" sheetId="4" r:id="rId4"/>
     <sheet name="Table3" sheetId="5" r:id="rId5"/>
+    <sheet name="Acronyms" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="128">
   <si>
     <t xml:space="preserve">Variable </t>
   </si>
@@ -269,13 +270,406 @@
   </si>
   <si>
     <t>0.5±0.3</t>
+  </si>
+  <si>
+    <r>
+      <t>DRAM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FFF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FDM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PLA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ABS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HDPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rPET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rHDPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FGF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FPF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rPET90//rHDPE10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FTIR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MFI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vPET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pBC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Distributed recycling via additive manufacturing </t>
+  </si>
+  <si>
+    <t>Additive Manufacturing </t>
+  </si>
+  <si>
+    <t>Fused filament fabrication </t>
+  </si>
+  <si>
+    <t>Fused deposition modeling </t>
+  </si>
+  <si>
+    <t>Poly(lactic acid) </t>
+  </si>
+  <si>
+    <t>Poly(acrylonitrile butadiene styrene)  </t>
+  </si>
+  <si>
+    <t>Poly(ethylene terephthalate) </t>
+  </si>
+  <si>
+    <t>High-density polyethylene </t>
+  </si>
+  <si>
+    <t>Polycarbonate </t>
+  </si>
+  <si>
+    <t>Polypropylene  </t>
+  </si>
+  <si>
+    <t>Polystyrene </t>
+  </si>
+  <si>
+    <t>Recycled Poly(ethylene) terephthalate </t>
+  </si>
+  <si>
+    <t>Recycled High-density Polyethylene </t>
+  </si>
+  <si>
+    <t>Fused granular fabrication </t>
+  </si>
+  <si>
+    <t>Fused particle fabrication </t>
+  </si>
+  <si>
+    <t>Recycled Bottle-Cap (Cristaline bottle shredded without separation) </t>
+  </si>
+  <si>
+    <t>Fourier-transform infrared spectroscopy  </t>
+  </si>
+  <si>
+    <t>Differential scanning calorimetry  </t>
+  </si>
+  <si>
+    <t>Melt flow index </t>
+  </si>
+  <si>
+    <t>Virgin or commercial Poly(ethylene terephthalate) </t>
+  </si>
+  <si>
+    <t>Printed Bottle-Cap </t>
+  </si>
+  <si>
+    <t>Glass temperature </t>
+  </si>
+  <si>
+    <t>Degree of crystallization </t>
+  </si>
+  <si>
+    <r>
+      <t>PSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SEBS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Particle swarm optimization </t>
+  </si>
+  <si>
+    <t>Poly (styrene-block-ethene-co-butene-block-styrene) </t>
+  </si>
+  <si>
+    <t>Acronym</t>
+  </si>
+  <si>
+    <t>Definition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -286,6 +680,17 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -331,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -351,7 +756,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,52 +1290,50 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="7"/>
-    <col min="3" max="3" width="47.5" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="7"/>
+    <col min="3" max="3" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1068,111 +1472,335 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B6BB1D-5043-F64C-A50F-2EBC8D58CD92}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>258</v>
+      </c>
+      <c r="C2">
+        <v>263</v>
+      </c>
+      <c r="D2">
+        <v>264</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>86</v>
+      </c>
+      <c r="C3">
+        <v>82</v>
+      </c>
+      <c r="D3">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9A4486-826B-1742-A06D-FE512468DFA1}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7">
-        <v>258</v>
-      </c>
-      <c r="C2" s="7">
-        <v>263</v>
-      </c>
-      <c r="D2" s="7">
-        <v>264</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7">
+        <v>78</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="7">
-        <v>82</v>
-      </c>
-      <c r="D3" s="7">
-        <v>84</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7">
-        <v>14</v>
-      </c>
-      <c r="D4" s="7">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="B11" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables/tables.xlsx
+++ b/tables/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Documents/10-Phds-Masters/Catalina Suescun/Multimaterial-article/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531F4A0D-926B-1942-86B6-C55231C8BED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D686AB2-6445-354E-9C3A-7E56893BEB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20480" yWindow="500" windowWidth="20480" windowHeight="21100" activeTab="5" xr2:uid="{7F404E41-5885-B84E-A1F0-6680A62133FC}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Table3" sheetId="5" r:id="rId5"/>
     <sheet name="Acronyms" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="127">
   <si>
     <t xml:space="preserve">Variable </t>
   </si>
@@ -573,9 +573,6 @@
     <t>Poly(lactic acid) </t>
   </si>
   <si>
-    <t>Poly(acrylonitrile butadiene styrene)  </t>
-  </si>
-  <si>
     <t>Poly(ethylene terephthalate) </t>
   </si>
   <si>
@@ -624,9 +621,6 @@
     <t>Glass temperature </t>
   </si>
   <si>
-    <t>Degree of crystallization </t>
-  </si>
-  <si>
     <r>
       <t>PSO</t>
     </r>
@@ -663,6 +657,9 @@
   </si>
   <si>
     <t>Definition</t>
+  </si>
+  <si>
+    <t>Acrylonitrile Butadiene Styrene  </t>
   </si>
 </sst>
 </file>
@@ -1585,20 +1582,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9A4486-826B-1742-A06D-FE512468DFA1}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="57.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1646,7 +1646,7 @@
         <v>82</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1654,7 +1654,7 @@
         <v>83</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1662,7 +1662,7 @@
         <v>84</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1670,7 +1670,7 @@
         <v>85</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1678,7 +1678,7 @@
         <v>86</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1686,7 +1686,7 @@
         <v>87</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1694,7 +1694,7 @@
         <v>88</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1702,7 +1702,7 @@
         <v>89</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1710,7 +1710,7 @@
         <v>90</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1718,7 +1718,7 @@
         <v>91</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1726,81 +1726,75 @@
         <v>92</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="A26" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables/tables.xlsx
+++ b/tables/tables.xlsx
@@ -1799,4 +1799,244 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CB2146C3A12A3478CE262F5137CAFD9" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="8facce72776f1069d00fb5bbcce3c5bf">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b79a6669-b227-46e2-bb5e-ef86048fd7bf" xmlns:ns3="285d3045-d79e-49b1-b2d5-4808ae63567a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9771afa8ce2305abd325e70e78dc829" ns2:_="" ns3:_="">
+    <xsd:import namespace="b79a6669-b227-46e2-bb5e-ef86048fd7bf"/>
+    <xsd:import namespace="285d3045-d79e-49b1-b2d5-4808ae63567a"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b79a6669-b227-46e2-bb5e-ef86048fd7bf" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="1d417cb3-2750-492f-8db0-46aaf8d22b50" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="285d3045-d79e-49b1-b2d5-4808ae63567a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{a87ab8d5-1e83-44c7-ab6d-a014e87b9ca5}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="285d3045-d79e-49b1-b2d5-4808ae63567a">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4B93C0-F7DD-4506-905B-300F52151CA5}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85684FA9-B5D9-4128-9E5D-F64F1F76D8C3}"/>
 </file>
--- a/tables/tables.xlsx
+++ b/tables/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/Documents/10-Phds-Masters/Catalina Suescun/Multimaterial-article/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suescung1\Universite de Lorraine\Green FabLab - Catalina\Articles\01-Multimaterial\Multimaterial-article\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D686AB2-6445-354E-9C3A-7E56893BEB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{6D686AB2-6445-354E-9C3A-7E56893BEB14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3909E9D-6945-4AD3-8FE5-118E60CF384B}"/>
   <bookViews>
-    <workbookView xWindow="20480" yWindow="500" windowWidth="20480" windowHeight="21100" activeTab="5" xr2:uid="{7F404E41-5885-B84E-A1F0-6680A62133FC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7F404E41-5885-B84E-A1F0-6680A62133FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1.a" sheetId="1" r:id="rId1"/>
@@ -20,26 +20,17 @@
     <sheet name="Table3" sheetId="5" r:id="rId5"/>
     <sheet name="Acronyms" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="126">
   <si>
     <t xml:space="preserve">Variable </t>
   </si>
@@ -149,9 +140,6 @@
     <t>Kg</t>
   </si>
   <si>
-    <t xml:space="preserve">The emphasis given to the swarm's group best position </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sample </t>
   </si>
   <si>
@@ -179,21 +167,12 @@
     <t>249.9</t>
   </si>
   <si>
-    <t>31.6</t>
-  </si>
-  <si>
     <t>196.7</t>
   </si>
   <si>
-    <t>34.8</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>22.6</t>
-  </si>
-  <si>
     <t>rHDPE</t>
   </si>
   <si>
@@ -203,9 +182,6 @@
     <t>118.7</t>
   </si>
   <si>
-    <t>158.5</t>
-  </si>
-  <si>
     <t>58.7</t>
   </si>
   <si>
@@ -230,9 +206,6 @@
     <t>6.8</t>
   </si>
   <si>
-    <t>24.8 / 18.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Xc </t>
   </si>
   <si>
@@ -660,6 +633,21 @@
   </si>
   <si>
     <t>Acrylonitrile Butadiene Styrene  </t>
+  </si>
+  <si>
+    <t>26.6 / 18.8</t>
+  </si>
+  <si>
+    <t>32.3</t>
+  </si>
+  <si>
+    <t>33.3</t>
+  </si>
+  <si>
+    <t>158.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The emphasis given to the swarm's group's best position </t>
   </si>
 </sst>
 </file>
@@ -733,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -755,6 +743,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,12 +1066,12 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,7 +1151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1193,9 +1184,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1206,7 +1197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1217,7 +1208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -1228,7 +1219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1239,7 +1230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -1250,7 +1241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -1261,7 +1252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
@@ -1281,16 +1272,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1C5ECF-1AE3-BF48-BCD9-5B8CA64FFEAD}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="47.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1301,7 +1292,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1312,7 +1303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1323,7 +1314,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1331,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1344,120 +1335,120 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="6" customWidth="1"/>
-    <col min="3" max="7" width="10.83203125" style="6"/>
-    <col min="8" max="8" width="20.1640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="6"/>
+    <col min="1" max="1" width="22.19921875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" style="6" customWidth="1"/>
+    <col min="3" max="7" width="10.796875" style="6"/>
+    <col min="8" max="8" width="20.19921875" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="10.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="9">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="6">
-        <v>82</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="9">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="B3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="D3" s="9">
+        <v>172</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="F3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="6">
-        <v>172</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1473,29 +1464,29 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1509,13 +1500,13 @@
         <v>264</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1529,13 +1520,13 @@
         <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1549,30 +1540,30 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1584,216 +1575,216 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9A4486-826B-1742-A06D-FE512468DFA1}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B8" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="8" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="B24" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
     </row>
   </sheetData>
@@ -1802,8 +1793,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CB2146C3A12A3478CE262F5137CAFD9" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="8facce72776f1069d00fb5bbcce3c5bf">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b79a6669-b227-46e2-bb5e-ef86048fd7bf" xmlns:ns3="285d3045-d79e-49b1-b2d5-4808ae63567a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9771afa8ce2305abd325e70e78dc829" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b79a6669-b227-46e2-bb5e-ef86048fd7bf">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="285d3045-d79e-49b1-b2d5-4808ae63567a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CB2146C3A12A3478CE262F5137CAFD9" ma:contentTypeVersion="14" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3c193eaf4fdabb0fbc527e1f70677cf4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b79a6669-b227-46e2-bb5e-ef86048fd7bf" xmlns:ns3="285d3045-d79e-49b1-b2d5-4808ae63567a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8a7d51b6712f9bef7fc1c791c2ad763" ns2:_="" ns3:_="">
     <xsd:import namespace="b79a6669-b227-46e2-bb5e-ef86048fd7bf"/>
     <xsd:import namespace="285d3045-d79e-49b1-b2d5-4808ae63567a"/>
     <xsd:element name="properties">
@@ -1824,6 +1826,7 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1879,6 +1882,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -2024,7 +2032,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2034,9 +2042,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4B93C0-F7DD-4506-905B-300F52151CA5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{711B4909-5A1E-43FF-B80D-66593F33B6CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="285d3045-d79e-49b1-b2d5-4808ae63567a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b79a6669-b227-46e2-bb5e-ef86048fd7bf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85684FA9-B5D9-4128-9E5D-F64F1F76D8C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDE614C1-C4C0-4B1E-9AF1-3C9DF6590C4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b79a6669-b227-46e2-bb5e-ef86048fd7bf"/>
+    <ds:schemaRef ds:uri="285d3045-d79e-49b1-b2d5-4808ae63567a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85684FA9-B5D9-4128-9E5D-F64F1F76D8C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>